--- a/Dataset/15/나의 해방일지_학습 (15)/해방일지6.xlsx
+++ b/Dataset/15/나의 해방일지_학습 (15)/해방일지6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DooDoo\Desktop\05.25 학습\나의 해방일지_학습 (15)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\나의 해방일지_학습 (15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA775CA5-E0A5-4546-9D12-CD288E604214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6C13FE-8906-4564-960D-F3B9A163FB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2914" yWindow="2914" windowWidth="24686" windowHeight="13055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="1542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="1543">
   <si>
     <t>Time</t>
   </si>
@@ -4663,6 +4663,9 @@
   <si>
     <t>fixed-label</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmoid_label</t>
   </si>
 </sst>
 </file>
@@ -5034,19 +5037,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E777"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A711" workbookViewId="0">
-      <selection activeCell="E796" sqref="E796"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="52.375" customWidth="1"/>
+    <col min="2" max="2" width="52.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5060,10 +5062,10 @@
         <v>1541</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5078,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5093,7 +5095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5108,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -5123,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -5138,7 +5140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5153,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5168,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -5186,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -5201,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5216,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -5231,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -5246,7 +5248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -5261,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -5276,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -5291,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -5306,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -5321,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -5336,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -5351,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -5366,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -5381,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -5396,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -5414,7 +5416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -5429,7 +5431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -5444,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -5459,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -5474,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -5489,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -5504,7 +5506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -5519,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -5534,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -5549,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -5564,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -5579,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -5594,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -5609,7 +5611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -5627,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -5645,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -5660,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -5678,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -5693,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -5708,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -5726,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -5741,7 +5743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -5759,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -5777,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -5795,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -5813,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -5828,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>99</v>
       </c>
@@ -5846,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -5864,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -5879,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>105</v>
       </c>
@@ -5894,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -5909,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -5924,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>111</v>
       </c>
@@ -5939,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>113</v>
       </c>
@@ -5954,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>115</v>
       </c>
@@ -5969,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -5984,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>119</v>
       </c>
@@ -6002,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>121</v>
       </c>
@@ -6017,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>123</v>
       </c>
@@ -6035,7 +6037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>125</v>
       </c>
@@ -6050,7 +6052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -6065,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>129</v>
       </c>
@@ -6080,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -6095,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -6110,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>135</v>
       </c>
@@ -6125,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>137</v>
       </c>
@@ -6140,7 +6142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>139</v>
       </c>
@@ -6155,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>141</v>
       </c>
@@ -6170,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>143</v>
       </c>
@@ -6185,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>145</v>
       </c>
@@ -6203,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>147</v>
       </c>
@@ -6218,7 +6220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>149</v>
       </c>
@@ -6233,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>151</v>
       </c>
@@ -6248,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>153</v>
       </c>
@@ -6263,7 +6265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>155</v>
       </c>
@@ -6278,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>157</v>
       </c>
@@ -6293,7 +6295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>159</v>
       </c>
@@ -6308,7 +6310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>161</v>
       </c>
@@ -6323,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>163</v>
       </c>
@@ -6338,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -6353,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -6368,7 +6370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -6383,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -6398,7 +6400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -6413,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -6428,7 +6430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>177</v>
       </c>
@@ -6443,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -6458,7 +6460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -6473,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>183</v>
       </c>
@@ -6488,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -6503,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -6518,7 +6520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -6533,7 +6535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -6548,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -6566,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -6584,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -6599,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -6614,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -6629,7 +6631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -6647,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -6662,7 +6664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -6677,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -6692,7 +6694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -6707,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>213</v>
       </c>
@@ -6722,7 +6724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>215</v>
       </c>
@@ -6737,7 +6739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>217</v>
       </c>
@@ -6752,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>219</v>
       </c>
@@ -6767,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>221</v>
       </c>
@@ -6782,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>223</v>
       </c>
@@ -6797,7 +6799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>225</v>
       </c>
@@ -6812,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>227</v>
       </c>
@@ -6827,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>229</v>
       </c>
@@ -6842,7 +6844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>231</v>
       </c>
@@ -6857,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>233</v>
       </c>
@@ -6872,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>235</v>
       </c>
@@ -6887,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>237</v>
       </c>
@@ -6902,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -6917,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>241</v>
       </c>
@@ -6932,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>243</v>
       </c>
@@ -6947,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>245</v>
       </c>
@@ -6962,7 +6964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>247</v>
       </c>
@@ -6980,7 +6982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>249</v>
       </c>
@@ -6995,7 +6997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>251</v>
       </c>
@@ -7013,7 +7015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>253</v>
       </c>
@@ -7028,7 +7030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>255</v>
       </c>
@@ -7043,7 +7045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>257</v>
       </c>
@@ -7058,7 +7060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>259</v>
       </c>
@@ -7073,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>261</v>
       </c>
@@ -7088,7 +7090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>263</v>
       </c>
@@ -7103,7 +7105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>265</v>
       </c>
@@ -7118,7 +7120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>267</v>
       </c>
@@ -7133,7 +7135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>269</v>
       </c>
@@ -7148,7 +7150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>271</v>
       </c>
@@ -7163,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>273</v>
       </c>
@@ -7178,7 +7180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>275</v>
       </c>
@@ -7193,7 +7195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>277</v>
       </c>
@@ -7208,7 +7210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>279</v>
       </c>
@@ -7223,7 +7225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>281</v>
       </c>
@@ -7238,7 +7240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>283</v>
       </c>
@@ -7253,7 +7255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>285</v>
       </c>
@@ -7268,7 +7270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>286</v>
       </c>
@@ -7283,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>288</v>
       </c>
@@ -7298,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>290</v>
       </c>
@@ -7313,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>292</v>
       </c>
@@ -7328,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>294</v>
       </c>
@@ -7343,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>296</v>
       </c>
@@ -7358,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>297</v>
       </c>
@@ -7373,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>299</v>
       </c>
@@ -7388,7 +7390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>301</v>
       </c>
@@ -7403,7 +7405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>303</v>
       </c>
@@ -7421,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>305</v>
       </c>
@@ -7439,7 +7441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>307</v>
       </c>
@@ -7454,7 +7456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>309</v>
       </c>
@@ -7469,7 +7471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>311</v>
       </c>
@@ -7484,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>313</v>
       </c>
@@ -7502,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>315</v>
       </c>
@@ -7517,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>317</v>
       </c>
@@ -7535,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>319</v>
       </c>
@@ -7553,7 +7555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>321</v>
       </c>
@@ -7568,7 +7570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>323</v>
       </c>
@@ -7583,7 +7585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>325</v>
       </c>
@@ -7598,7 +7600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>327</v>
       </c>
@@ -7613,7 +7615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>329</v>
       </c>
@@ -7628,7 +7630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>331</v>
       </c>
@@ -7643,7 +7645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>333</v>
       </c>
@@ -7658,7 +7660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>335</v>
       </c>
@@ -7673,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>337</v>
       </c>
@@ -7688,7 +7690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>339</v>
       </c>
@@ -7703,7 +7705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>341</v>
       </c>
@@ -7718,7 +7720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>343</v>
       </c>
@@ -7733,7 +7735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>345</v>
       </c>
@@ -7748,7 +7750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>347</v>
       </c>
@@ -7763,7 +7765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>349</v>
       </c>
@@ -7778,7 +7780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>351</v>
       </c>
@@ -7793,7 +7795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>353</v>
       </c>
@@ -7808,7 +7810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>355</v>
       </c>
@@ -7823,7 +7825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>357</v>
       </c>
@@ -7838,7 +7840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>359</v>
       </c>
@@ -7853,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>361</v>
       </c>
@@ -7868,7 +7870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>363</v>
       </c>
@@ -7883,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>365</v>
       </c>
@@ -7898,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>367</v>
       </c>
@@ -7913,7 +7915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>369</v>
       </c>
@@ -7928,7 +7930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>371</v>
       </c>
@@ -7946,7 +7948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>373</v>
       </c>
@@ -7964,7 +7966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>375</v>
       </c>
@@ -7979,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>377</v>
       </c>
@@ -7994,7 +7996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>379</v>
       </c>
@@ -8009,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>381</v>
       </c>
@@ -8024,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>383</v>
       </c>
@@ -8039,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>384</v>
       </c>
@@ -8054,7 +8056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>386</v>
       </c>
@@ -8069,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>388</v>
       </c>
@@ -8084,7 +8086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>390</v>
       </c>
@@ -8102,7 +8104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>392</v>
       </c>
@@ -8120,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>394</v>
       </c>
@@ -8135,7 +8137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>396</v>
       </c>
@@ -8150,7 +8152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>398</v>
       </c>
@@ -8165,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>400</v>
       </c>
@@ -8180,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>402</v>
       </c>
@@ -8195,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>404</v>
       </c>
@@ -8210,7 +8212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>406</v>
       </c>
@@ -8225,7 +8227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>408</v>
       </c>
@@ -8240,7 +8242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>410</v>
       </c>
@@ -8255,7 +8257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>412</v>
       </c>
@@ -8270,7 +8272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>414</v>
       </c>
@@ -8285,7 +8287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>416</v>
       </c>
@@ -8300,7 +8302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>418</v>
       </c>
@@ -8315,7 +8317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>420</v>
       </c>
@@ -8330,7 +8332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>422</v>
       </c>
@@ -8345,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>424</v>
       </c>
@@ -8360,7 +8362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>426</v>
       </c>
@@ -8375,7 +8377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>428</v>
       </c>
@@ -8390,7 +8392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>430</v>
       </c>
@@ -8405,7 +8407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>432</v>
       </c>
@@ -8420,7 +8422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>434</v>
       </c>
@@ -8438,7 +8440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>436</v>
       </c>
@@ -8453,7 +8455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>438</v>
       </c>
@@ -8468,7 +8470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>440</v>
       </c>
@@ -8486,7 +8488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>442</v>
       </c>
@@ -8501,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>444</v>
       </c>
@@ -8516,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>446</v>
       </c>
@@ -8531,7 +8533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>448</v>
       </c>
@@ -8546,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>450</v>
       </c>
@@ -8561,7 +8563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>452</v>
       </c>
@@ -8576,7 +8578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>454</v>
       </c>
@@ -8591,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>456</v>
       </c>
@@ -8606,7 +8608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>458</v>
       </c>
@@ -8621,7 +8623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>460</v>
       </c>
@@ -8639,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>462</v>
       </c>
@@ -8657,7 +8659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>464</v>
       </c>
@@ -8672,7 +8674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>466</v>
       </c>
@@ -8690,7 +8692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>468</v>
       </c>
@@ -8705,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>470</v>
       </c>
@@ -8720,7 +8722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>472</v>
       </c>
@@ -8735,7 +8737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>474</v>
       </c>
@@ -8750,7 +8752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>476</v>
       </c>
@@ -8765,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>478</v>
       </c>
@@ -8780,7 +8782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>480</v>
       </c>
@@ -8795,7 +8797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>482</v>
       </c>
@@ -8810,7 +8812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>484</v>
       </c>
@@ -8825,7 +8827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>486</v>
       </c>
@@ -8840,7 +8842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>488</v>
       </c>
@@ -8855,7 +8857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>490</v>
       </c>
@@ -8870,7 +8872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>492</v>
       </c>
@@ -8885,7 +8887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>494</v>
       </c>
@@ -8900,7 +8902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>496</v>
       </c>
@@ -8915,7 +8917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>498</v>
       </c>
@@ -8930,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>500</v>
       </c>
@@ -8945,7 +8947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>502</v>
       </c>
@@ -8960,7 +8962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>504</v>
       </c>
@@ -8975,7 +8977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>506</v>
       </c>
@@ -8993,7 +8995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>508</v>
       </c>
@@ -9008,7 +9010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>510</v>
       </c>
@@ -9023,7 +9025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>512</v>
       </c>
@@ -9038,7 +9040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>514</v>
       </c>
@@ -9053,7 +9055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>516</v>
       </c>
@@ -9068,7 +9070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>518</v>
       </c>
@@ -9083,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>520</v>
       </c>
@@ -9098,7 +9100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>522</v>
       </c>
@@ -9116,7 +9118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>524</v>
       </c>
@@ -9131,7 +9133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>526</v>
       </c>
@@ -9146,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>527</v>
       </c>
@@ -9161,7 +9163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>529</v>
       </c>
@@ -9176,7 +9178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>531</v>
       </c>
@@ -9191,7 +9193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>533</v>
       </c>
@@ -9206,7 +9208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>535</v>
       </c>
@@ -9221,7 +9223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>537</v>
       </c>
@@ -9236,7 +9238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>539</v>
       </c>
@@ -9251,7 +9253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>541</v>
       </c>
@@ -9266,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>543</v>
       </c>
@@ -9281,7 +9283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>545</v>
       </c>
@@ -9296,7 +9298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>547</v>
       </c>
@@ -9311,7 +9313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>549</v>
       </c>
@@ -9326,7 +9328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>551</v>
       </c>
@@ -9341,7 +9343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>553</v>
       </c>
@@ -9356,7 +9358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>555</v>
       </c>
@@ -9371,7 +9373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>557</v>
       </c>
@@ -9386,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>559</v>
       </c>
@@ -9401,7 +9403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>561</v>
       </c>
@@ -9419,7 +9421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>563</v>
       </c>
@@ -9434,7 +9436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>565</v>
       </c>
@@ -9449,7 +9451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>567</v>
       </c>
@@ -9464,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>569</v>
       </c>
@@ -9479,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>571</v>
       </c>
@@ -9494,7 +9496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>573</v>
       </c>
@@ -9509,7 +9511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>575</v>
       </c>
@@ -9524,7 +9526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>577</v>
       </c>
@@ -9539,7 +9541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>579</v>
       </c>
@@ -9554,7 +9556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>581</v>
       </c>
@@ -9569,7 +9571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>583</v>
       </c>
@@ -9584,7 +9586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>585</v>
       </c>
@@ -9602,7 +9604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>587</v>
       </c>
@@ -9617,7 +9619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>589</v>
       </c>
@@ -9632,7 +9634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>591</v>
       </c>
@@ -9647,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>593</v>
       </c>
@@ -9662,7 +9664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>595</v>
       </c>
@@ -9677,7 +9679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>597</v>
       </c>
@@ -9692,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>599</v>
       </c>
@@ -9707,7 +9709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>601</v>
       </c>
@@ -9722,7 +9724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>603</v>
       </c>
@@ -9737,7 +9739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>605</v>
       </c>
@@ -9752,7 +9754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>607</v>
       </c>
@@ -9767,7 +9769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>609</v>
       </c>
@@ -9785,7 +9787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>611</v>
       </c>
@@ -9800,7 +9802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>613</v>
       </c>
@@ -9815,7 +9817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>615</v>
       </c>
@@ -9830,7 +9832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>617</v>
       </c>
@@ -9845,7 +9847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>619</v>
       </c>
@@ -9860,7 +9862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>621</v>
       </c>
@@ -9875,7 +9877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>623</v>
       </c>
@@ -9890,7 +9892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>625</v>
       </c>
@@ -9905,7 +9907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>627</v>
       </c>
@@ -9920,7 +9922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>629</v>
       </c>
@@ -9935,7 +9937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>631</v>
       </c>
@@ -9950,7 +9952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>633</v>
       </c>
@@ -9965,7 +9967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>635</v>
       </c>
@@ -9980,7 +9982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>637</v>
       </c>
@@ -9998,7 +10000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>639</v>
       </c>
@@ -10013,7 +10015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>641</v>
       </c>
@@ -10028,7 +10030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>643</v>
       </c>
@@ -10043,7 +10045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>645</v>
       </c>
@@ -10058,7 +10060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>647</v>
       </c>
@@ -10073,7 +10075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>649</v>
       </c>
@@ -10088,7 +10090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>651</v>
       </c>
@@ -10103,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>653</v>
       </c>
@@ -10118,7 +10120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>655</v>
       </c>
@@ -10133,7 +10135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>657</v>
       </c>
@@ -10148,7 +10150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>659</v>
       </c>
@@ -10163,7 +10165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>661</v>
       </c>
@@ -10178,7 +10180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>663</v>
       </c>
@@ -10193,7 +10195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>665</v>
       </c>
@@ -10208,7 +10210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>667</v>
       </c>
@@ -10223,7 +10225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>669</v>
       </c>
@@ -10238,7 +10240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>671</v>
       </c>
@@ -10253,7 +10255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>673</v>
       </c>
@@ -10268,7 +10270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>675</v>
       </c>
@@ -10283,7 +10285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>677</v>
       </c>
@@ -10298,7 +10300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>679</v>
       </c>
@@ -10313,7 +10315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>681</v>
       </c>
@@ -10328,7 +10330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>683</v>
       </c>
@@ -10343,7 +10345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>685</v>
       </c>
@@ -10358,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>687</v>
       </c>
@@ -10373,7 +10375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>689</v>
       </c>
@@ -10388,7 +10390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>691</v>
       </c>
@@ -10403,7 +10405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>693</v>
       </c>
@@ -10418,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>695</v>
       </c>
@@ -10433,7 +10435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>697</v>
       </c>
@@ -10448,7 +10450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>699</v>
       </c>
@@ -10463,7 +10465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>701</v>
       </c>
@@ -10481,7 +10483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>703</v>
       </c>
@@ -10496,7 +10498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>705</v>
       </c>
@@ -10511,7 +10513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>707</v>
       </c>
@@ -10526,7 +10528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>709</v>
       </c>
@@ -10544,7 +10546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>711</v>
       </c>
@@ -10559,7 +10561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>713</v>
       </c>
@@ -10574,7 +10576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>715</v>
       </c>
@@ -10589,7 +10591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>717</v>
       </c>
@@ -10604,7 +10606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>719</v>
       </c>
@@ -10619,7 +10621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>721</v>
       </c>
@@ -10634,7 +10636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>723</v>
       </c>
@@ -10649,7 +10651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>725</v>
       </c>
@@ -10664,7 +10666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>727</v>
       </c>
@@ -10679,7 +10681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>729</v>
       </c>
@@ -10694,7 +10696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>731</v>
       </c>
@@ -10709,7 +10711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>733</v>
       </c>
@@ -10724,7 +10726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>735</v>
       </c>
@@ -10739,7 +10741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>737</v>
       </c>
@@ -10754,7 +10756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>739</v>
       </c>
@@ -10769,7 +10771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>741</v>
       </c>
@@ -10784,7 +10786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>743</v>
       </c>
@@ -10799,7 +10801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>745</v>
       </c>
@@ -10814,7 +10816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>747</v>
       </c>
@@ -10829,7 +10831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>749</v>
       </c>
@@ -10844,7 +10846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>751</v>
       </c>
@@ -10862,7 +10864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>753</v>
       </c>
@@ -10877,7 +10879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>755</v>
       </c>
@@ -10895,7 +10897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>757</v>
       </c>
@@ -10913,7 +10915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>759</v>
       </c>
@@ -10928,7 +10930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>761</v>
       </c>
@@ -10943,7 +10945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
         <v>763</v>
       </c>
@@ -10958,7 +10960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
         <v>765</v>
       </c>
@@ -10976,7 +10978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
         <v>767</v>
       </c>
@@ -10991,7 +10993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
         <v>769</v>
       </c>
@@ -11006,7 +11008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
         <v>771</v>
       </c>
@@ -11021,7 +11023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
         <v>773</v>
       </c>
@@ -11039,7 +11041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
         <v>775</v>
       </c>
@@ -11054,7 +11056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
         <v>777</v>
       </c>
@@ -11069,7 +11071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
         <v>779</v>
       </c>
@@ -11084,7 +11086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
         <v>781</v>
       </c>
@@ -11099,7 +11101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
         <v>783</v>
       </c>
@@ -11114,7 +11116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
         <v>785</v>
       </c>
@@ -11129,7 +11131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
         <v>787</v>
       </c>
@@ -11147,7 +11149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>789</v>
       </c>
@@ -11162,7 +11164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>791</v>
       </c>
@@ -11177,7 +11179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>793</v>
       </c>
@@ -11195,7 +11197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>795</v>
       </c>
@@ -11210,7 +11212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>797</v>
       </c>
@@ -11225,7 +11227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
         <v>799</v>
       </c>
@@ -11240,7 +11242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
         <v>801</v>
       </c>
@@ -11255,7 +11257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
         <v>803</v>
       </c>
@@ -11270,7 +11272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
         <v>805</v>
       </c>
@@ -11285,7 +11287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" t="s">
         <v>807</v>
       </c>
@@ -11300,7 +11302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" t="s">
         <v>809</v>
       </c>
@@ -11315,7 +11317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" t="s">
         <v>811</v>
       </c>
@@ -11330,7 +11332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" t="s">
         <v>813</v>
       </c>
@@ -11345,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" t="s">
         <v>815</v>
       </c>
@@ -11360,7 +11362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" t="s">
         <v>817</v>
       </c>
@@ -11375,7 +11377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" t="s">
         <v>819</v>
       </c>
@@ -11390,7 +11392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" t="s">
         <v>821</v>
       </c>
@@ -11405,7 +11407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" t="s">
         <v>823</v>
       </c>
@@ -11420,7 +11422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" t="s">
         <v>825</v>
       </c>
@@ -11435,7 +11437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" t="s">
         <v>827</v>
       </c>
@@ -11453,7 +11455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" t="s">
         <v>829</v>
       </c>
@@ -11471,7 +11473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
         <v>831</v>
       </c>
@@ -11489,7 +11491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
         <v>833</v>
       </c>
@@ -11504,7 +11506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" t="s">
         <v>835</v>
       </c>
@@ -11519,7 +11521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
         <v>837</v>
       </c>
@@ -11537,7 +11539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
         <v>839</v>
       </c>
@@ -11552,7 +11554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
         <v>841</v>
       </c>
@@ -11567,7 +11569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
         <v>842</v>
       </c>
@@ -11582,7 +11584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" t="s">
         <v>844</v>
       </c>
@@ -11597,7 +11599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" t="s">
         <v>846</v>
       </c>
@@ -11612,7 +11614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" t="s">
         <v>848</v>
       </c>
@@ -11627,7 +11629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" t="s">
         <v>850</v>
       </c>
@@ -11642,7 +11644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" t="s">
         <v>852</v>
       </c>
@@ -11657,7 +11659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" t="s">
         <v>854</v>
       </c>
@@ -11672,7 +11674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" t="s">
         <v>856</v>
       </c>
@@ -11687,7 +11689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" t="s">
         <v>858</v>
       </c>
@@ -11702,7 +11704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" t="s">
         <v>860</v>
       </c>
@@ -11717,7 +11719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" t="s">
         <v>862</v>
       </c>
@@ -11732,7 +11734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" t="s">
         <v>863</v>
       </c>
@@ -11750,7 +11752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" t="s">
         <v>865</v>
       </c>
@@ -11768,7 +11770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" t="s">
         <v>867</v>
       </c>
@@ -11783,7 +11785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" t="s">
         <v>869</v>
       </c>
@@ -11798,7 +11800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" t="s">
         <v>871</v>
       </c>
@@ -11816,7 +11818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" t="s">
         <v>873</v>
       </c>
@@ -11831,7 +11833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" t="s">
         <v>875</v>
       </c>
@@ -11846,7 +11848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" t="s">
         <v>877</v>
       </c>
@@ -11861,7 +11863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" t="s">
         <v>879</v>
       </c>
@@ -11876,7 +11878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" t="s">
         <v>881</v>
       </c>
@@ -11891,7 +11893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" t="s">
         <v>883</v>
       </c>
@@ -11906,7 +11908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" t="s">
         <v>885</v>
       </c>
@@ -11921,7 +11923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" t="s">
         <v>887</v>
       </c>
@@ -11936,7 +11938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" t="s">
         <v>889</v>
       </c>
@@ -11951,7 +11953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" t="s">
         <v>891</v>
       </c>
@@ -11966,7 +11968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" t="s">
         <v>893</v>
       </c>
@@ -11981,7 +11983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" t="s">
         <v>895</v>
       </c>
@@ -11996,7 +11998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" t="s">
         <v>897</v>
       </c>
@@ -12011,7 +12013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" t="s">
         <v>899</v>
       </c>
@@ -12026,7 +12028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" t="s">
         <v>901</v>
       </c>
@@ -12041,7 +12043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" t="s">
         <v>903</v>
       </c>
@@ -12056,7 +12058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" t="s">
         <v>905</v>
       </c>
@@ -12071,7 +12073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" t="s">
         <v>907</v>
       </c>
@@ -12086,7 +12088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" t="s">
         <v>909</v>
       </c>
@@ -12101,7 +12103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" t="s">
         <v>911</v>
       </c>
@@ -12116,7 +12118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" t="s">
         <v>913</v>
       </c>
@@ -12134,7 +12136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" t="s">
         <v>915</v>
       </c>
@@ -12149,7 +12151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" t="s">
         <v>917</v>
       </c>
@@ -12164,7 +12166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" t="s">
         <v>919</v>
       </c>
@@ -12179,7 +12181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" t="s">
         <v>921</v>
       </c>
@@ -12194,7 +12196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" t="s">
         <v>923</v>
       </c>
@@ -12209,7 +12211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" t="s">
         <v>925</v>
       </c>
@@ -12224,7 +12226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" t="s">
         <v>927</v>
       </c>
@@ -12239,7 +12241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" t="s">
         <v>929</v>
       </c>
@@ -12254,7 +12256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" t="s">
         <v>931</v>
       </c>
@@ -12269,7 +12271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" t="s">
         <v>933</v>
       </c>
@@ -12284,7 +12286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" t="s">
         <v>935</v>
       </c>
@@ -12302,7 +12304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" t="s">
         <v>937</v>
       </c>
@@ -12317,7 +12319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" t="s">
         <v>939</v>
       </c>
@@ -12332,7 +12334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" t="s">
         <v>941</v>
       </c>
@@ -12347,7 +12349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" t="s">
         <v>943</v>
       </c>
@@ -12362,7 +12364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" t="s">
         <v>945</v>
       </c>
@@ -12380,7 +12382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" t="s">
         <v>947</v>
       </c>
@@ -12395,7 +12397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" t="s">
         <v>949</v>
       </c>
@@ -12410,7 +12412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" t="s">
         <v>951</v>
       </c>
@@ -12425,7 +12427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" t="s">
         <v>953</v>
       </c>
@@ -12440,7 +12442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" t="s">
         <v>955</v>
       </c>
@@ -12455,7 +12457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" t="s">
         <v>957</v>
       </c>
@@ -12470,7 +12472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" t="s">
         <v>959</v>
       </c>
@@ -12485,7 +12487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" t="s">
         <v>961</v>
       </c>
@@ -12500,7 +12502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" t="s">
         <v>963</v>
       </c>
@@ -12515,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" t="s">
         <v>965</v>
       </c>
@@ -12530,7 +12532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" t="s">
         <v>967</v>
       </c>
@@ -12545,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" t="s">
         <v>969</v>
       </c>
@@ -12560,7 +12562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" t="s">
         <v>971</v>
       </c>
@@ -12575,7 +12577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" t="s">
         <v>973</v>
       </c>
@@ -12590,7 +12592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" t="s">
         <v>975</v>
       </c>
@@ -12605,7 +12607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" t="s">
         <v>977</v>
       </c>
@@ -12620,7 +12622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" t="s">
         <v>979</v>
       </c>
@@ -12635,7 +12637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" t="s">
         <v>981</v>
       </c>
@@ -12650,7 +12652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" t="s">
         <v>983</v>
       </c>
@@ -12665,7 +12667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" t="s">
         <v>985</v>
       </c>
@@ -12680,7 +12682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" t="s">
         <v>987</v>
       </c>
@@ -12695,7 +12697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" t="s">
         <v>989</v>
       </c>
@@ -12710,7 +12712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" t="s">
         <v>991</v>
       </c>
@@ -12725,7 +12727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" t="s">
         <v>993</v>
       </c>
@@ -12740,7 +12742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" t="s">
         <v>995</v>
       </c>
@@ -12755,7 +12757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" t="s">
         <v>997</v>
       </c>
@@ -12770,7 +12772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" t="s">
         <v>999</v>
       </c>
@@ -12785,7 +12787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" t="s">
         <v>1001</v>
       </c>
@@ -12800,7 +12802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" t="s">
         <v>1003</v>
       </c>
@@ -12815,7 +12817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" t="s">
         <v>1005</v>
       </c>
@@ -12830,7 +12832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" t="s">
         <v>1007</v>
       </c>
@@ -12845,7 +12847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" t="s">
         <v>1009</v>
       </c>
@@ -12860,7 +12862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" t="s">
         <v>1011</v>
       </c>
@@ -12875,7 +12877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" t="s">
         <v>1013</v>
       </c>
@@ -12890,7 +12892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" t="s">
         <v>1015</v>
       </c>
@@ -12905,7 +12907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" t="s">
         <v>1017</v>
       </c>
@@ -12920,7 +12922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" t="s">
         <v>1019</v>
       </c>
@@ -12935,7 +12937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" t="s">
         <v>1021</v>
       </c>
@@ -12950,7 +12952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" t="s">
         <v>1023</v>
       </c>
@@ -12965,7 +12967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" t="s">
         <v>1025</v>
       </c>
@@ -12980,7 +12982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" t="s">
         <v>1027</v>
       </c>
@@ -12995,7 +12997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" t="s">
         <v>1029</v>
       </c>
@@ -13010,7 +13012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" t="s">
         <v>1031</v>
       </c>
@@ -13025,7 +13027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" t="s">
         <v>1033</v>
       </c>
@@ -13040,7 +13042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" t="s">
         <v>1035</v>
       </c>
@@ -13055,7 +13057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" t="s">
         <v>1037</v>
       </c>
@@ -13070,7 +13072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" t="s">
         <v>1039</v>
       </c>
@@ -13085,7 +13087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" t="s">
         <v>1041</v>
       </c>
@@ -13100,7 +13102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" t="s">
         <v>1043</v>
       </c>
@@ -13115,7 +13117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" t="s">
         <v>1045</v>
       </c>
@@ -13130,7 +13132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" t="s">
         <v>1047</v>
       </c>
@@ -13145,7 +13147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" t="s">
         <v>1049</v>
       </c>
@@ -13160,7 +13162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" t="s">
         <v>1051</v>
       </c>
@@ -13175,7 +13177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" t="s">
         <v>1053</v>
       </c>
@@ -13190,7 +13192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" t="s">
         <v>1055</v>
       </c>
@@ -13205,7 +13207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" t="s">
         <v>1057</v>
       </c>
@@ -13220,7 +13222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" t="s">
         <v>1059</v>
       </c>
@@ -13235,7 +13237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" t="s">
         <v>1061</v>
       </c>
@@ -13250,7 +13252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" t="s">
         <v>1063</v>
       </c>
@@ -13265,7 +13267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" t="s">
         <v>1065</v>
       </c>
@@ -13280,7 +13282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" t="s">
         <v>1067</v>
       </c>
@@ -13295,7 +13297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" t="s">
         <v>1069</v>
       </c>
@@ -13310,7 +13312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" t="s">
         <v>1071</v>
       </c>
@@ -13325,7 +13327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" t="s">
         <v>1073</v>
       </c>
@@ -13343,7 +13345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" t="s">
         <v>1075</v>
       </c>
@@ -13358,7 +13360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" t="s">
         <v>1077</v>
       </c>
@@ -13373,7 +13375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" t="s">
         <v>1079</v>
       </c>
@@ -13388,7 +13390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" t="s">
         <v>1081</v>
       </c>
@@ -13403,7 +13405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" t="s">
         <v>1083</v>
       </c>
@@ -13418,7 +13420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" t="s">
         <v>1085</v>
       </c>
@@ -13433,7 +13435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" t="s">
         <v>1087</v>
       </c>
@@ -13448,7 +13450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" t="s">
         <v>1089</v>
       </c>
@@ -13463,7 +13465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" t="s">
         <v>1091</v>
       </c>
@@ -13478,7 +13480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" t="s">
         <v>1093</v>
       </c>
@@ -13493,7 +13495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" t="s">
         <v>1095</v>
       </c>
@@ -13508,7 +13510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" t="s">
         <v>1097</v>
       </c>
@@ -13523,7 +13525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" t="s">
         <v>1099</v>
       </c>
@@ -13538,7 +13540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" t="s">
         <v>1101</v>
       </c>
@@ -13553,7 +13555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" t="s">
         <v>1103</v>
       </c>
@@ -13568,7 +13570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" t="s">
         <v>1105</v>
       </c>
@@ -13583,7 +13585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" t="s">
         <v>1107</v>
       </c>
@@ -13598,7 +13600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" t="s">
         <v>1109</v>
       </c>
@@ -13613,7 +13615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" t="s">
         <v>1111</v>
       </c>
@@ -13628,7 +13630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" t="s">
         <v>1113</v>
       </c>
@@ -13643,7 +13645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" t="s">
         <v>1115</v>
       </c>
@@ -13658,7 +13660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" t="s">
         <v>1117</v>
       </c>
@@ -13676,7 +13678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" t="s">
         <v>1119</v>
       </c>
@@ -13691,7 +13693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" t="s">
         <v>1121</v>
       </c>
@@ -13706,7 +13708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" t="s">
         <v>1123</v>
       </c>
@@ -13721,7 +13723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" t="s">
         <v>1125</v>
       </c>
@@ -13736,7 +13738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" t="s">
         <v>1127</v>
       </c>
@@ -13751,7 +13753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" t="s">
         <v>1129</v>
       </c>
@@ -13766,7 +13768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" t="s">
         <v>1131</v>
       </c>
@@ -13781,7 +13783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" t="s">
         <v>1133</v>
       </c>
@@ -13799,7 +13801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" t="s">
         <v>1135</v>
       </c>
@@ -13814,7 +13816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" t="s">
         <v>1137</v>
       </c>
@@ -13829,7 +13831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" t="s">
         <v>1139</v>
       </c>
@@ -13844,7 +13846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" t="s">
         <v>1141</v>
       </c>
@@ -13859,7 +13861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" t="s">
         <v>1143</v>
       </c>
@@ -13874,7 +13876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" t="s">
         <v>1145</v>
       </c>
@@ -13889,7 +13891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" t="s">
         <v>1147</v>
       </c>
@@ -13904,7 +13906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" t="s">
         <v>1149</v>
       </c>
@@ -13919,7 +13921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" t="s">
         <v>1151</v>
       </c>
@@ -13934,7 +13936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" t="s">
         <v>1153</v>
       </c>
@@ -13949,7 +13951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" t="s">
         <v>1155</v>
       </c>
@@ -13964,7 +13966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" t="s">
         <v>1157</v>
       </c>
@@ -13979,7 +13981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" t="s">
         <v>1159</v>
       </c>
@@ -13994,7 +13996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" t="s">
         <v>1161</v>
       </c>
@@ -14009,7 +14011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" t="s">
         <v>1163</v>
       </c>
@@ -14024,7 +14026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" t="s">
         <v>1165</v>
       </c>
@@ -14039,7 +14041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" t="s">
         <v>1167</v>
       </c>
@@ -14054,7 +14056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" t="s">
         <v>1169</v>
       </c>
@@ -14069,7 +14071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" t="s">
         <v>1171</v>
       </c>
@@ -14084,7 +14086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" t="s">
         <v>1173</v>
       </c>
@@ -14099,7 +14101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" t="s">
         <v>1175</v>
       </c>
@@ -14114,7 +14116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" t="s">
         <v>1177</v>
       </c>
@@ -14129,7 +14131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" t="s">
         <v>1179</v>
       </c>
@@ -14144,7 +14146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" t="s">
         <v>1181</v>
       </c>
@@ -14159,7 +14161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" t="s">
         <v>1183</v>
       </c>
@@ -14174,7 +14176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" t="s">
         <v>1185</v>
       </c>
@@ -14189,7 +14191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" t="s">
         <v>1187</v>
       </c>
@@ -14204,7 +14206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" t="s">
         <v>1189</v>
       </c>
@@ -14219,7 +14221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" t="s">
         <v>1191</v>
       </c>
@@ -14237,7 +14239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" t="s">
         <v>1193</v>
       </c>
@@ -14252,7 +14254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" t="s">
         <v>1195</v>
       </c>
@@ -14270,7 +14272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" t="s">
         <v>1197</v>
       </c>
@@ -14285,7 +14287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" t="s">
         <v>1199</v>
       </c>
@@ -14303,7 +14305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" t="s">
         <v>1201</v>
       </c>
@@ -14318,7 +14320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" t="s">
         <v>1203</v>
       </c>
@@ -14333,7 +14335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" t="s">
         <v>1205</v>
       </c>
@@ -14348,7 +14350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" t="s">
         <v>1207</v>
       </c>
@@ -14363,7 +14365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" t="s">
         <v>1209</v>
       </c>
@@ -14381,7 +14383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" t="s">
         <v>1211</v>
       </c>
@@ -14396,7 +14398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" t="s">
         <v>1213</v>
       </c>
@@ -14411,7 +14413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" t="s">
         <v>1215</v>
       </c>
@@ -14426,7 +14428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" t="s">
         <v>1217</v>
       </c>
@@ -14441,7 +14443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" t="s">
         <v>1219</v>
       </c>
@@ -14456,7 +14458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" t="s">
         <v>1221</v>
       </c>
@@ -14471,7 +14473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" t="s">
         <v>1223</v>
       </c>
@@ -14486,7 +14488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" t="s">
         <v>1225</v>
       </c>
@@ -14501,7 +14503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" t="s">
         <v>1227</v>
       </c>
@@ -14516,7 +14518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" t="s">
         <v>1229</v>
       </c>
@@ -14531,7 +14533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" t="s">
         <v>1231</v>
       </c>
@@ -14546,7 +14548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" t="s">
         <v>1233</v>
       </c>
@@ -14561,7 +14563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" t="s">
         <v>1235</v>
       </c>
@@ -14576,7 +14578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" t="s">
         <v>1237</v>
       </c>
@@ -14594,7 +14596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" t="s">
         <v>1239</v>
       </c>
@@ -14609,7 +14611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" t="s">
         <v>1241</v>
       </c>
@@ -14624,7 +14626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" t="s">
         <v>1243</v>
       </c>
@@ -14639,7 +14641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" t="s">
         <v>1245</v>
       </c>
@@ -14654,7 +14656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" t="s">
         <v>1247</v>
       </c>
@@ -14669,7 +14671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" t="s">
         <v>1249</v>
       </c>
@@ -14684,7 +14686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" t="s">
         <v>1251</v>
       </c>
@@ -14699,7 +14701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" t="s">
         <v>1253</v>
       </c>
@@ -14714,7 +14716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" t="s">
         <v>1254</v>
       </c>
@@ -14729,7 +14731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" t="s">
         <v>1256</v>
       </c>
@@ -14744,7 +14746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" t="s">
         <v>1258</v>
       </c>
@@ -14762,7 +14764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" t="s">
         <v>1260</v>
       </c>
@@ -14777,7 +14779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" t="s">
         <v>1262</v>
       </c>
@@ -14792,7 +14794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" t="s">
         <v>1264</v>
       </c>
@@ -14807,7 +14809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" t="s">
         <v>1266</v>
       </c>
@@ -14822,7 +14824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" t="s">
         <v>1268</v>
       </c>
@@ -14837,7 +14839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" t="s">
         <v>1270</v>
       </c>
@@ -14852,7 +14854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" t="s">
         <v>1272</v>
       </c>
@@ -14870,7 +14872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" t="s">
         <v>1274</v>
       </c>
@@ -14885,7 +14887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" t="s">
         <v>1276</v>
       </c>
@@ -14900,7 +14902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" t="s">
         <v>1278</v>
       </c>
@@ -14915,7 +14917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" t="s">
         <v>1280</v>
       </c>
@@ -14930,7 +14932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" t="s">
         <v>1282</v>
       </c>
@@ -14945,7 +14947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" t="s">
         <v>1284</v>
       </c>
@@ -14963,7 +14965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" t="s">
         <v>1286</v>
       </c>
@@ -14978,7 +14980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" t="s">
         <v>1288</v>
       </c>
@@ -14993,7 +14995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" t="s">
         <v>1290</v>
       </c>
@@ -15008,7 +15010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" t="s">
         <v>1292</v>
       </c>
@@ -15023,7 +15025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" t="s">
         <v>1294</v>
       </c>
@@ -15038,7 +15040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" t="s">
         <v>1296</v>
       </c>
@@ -15053,7 +15055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" t="s">
         <v>1298</v>
       </c>
@@ -15068,7 +15070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" t="s">
         <v>1300</v>
       </c>
@@ -15083,7 +15085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" t="s">
         <v>1302</v>
       </c>
@@ -15098,7 +15100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" t="s">
         <v>1304</v>
       </c>
@@ -15113,7 +15115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" t="s">
         <v>1306</v>
       </c>
@@ -15128,7 +15130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" t="s">
         <v>1308</v>
       </c>
@@ -15143,7 +15145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" t="s">
         <v>1310</v>
       </c>
@@ -15158,7 +15160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" t="s">
         <v>1312</v>
       </c>
@@ -15173,7 +15175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" t="s">
         <v>1314</v>
       </c>
@@ -15188,7 +15190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" t="s">
         <v>1316</v>
       </c>
@@ -15203,7 +15205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" t="s">
         <v>1318</v>
       </c>
@@ -15218,7 +15220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" t="s">
         <v>1320</v>
       </c>
@@ -15233,7 +15235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" t="s">
         <v>1320</v>
       </c>
@@ -15248,7 +15250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" t="s">
         <v>1323</v>
       </c>
@@ -15266,7 +15268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" t="s">
         <v>1325</v>
       </c>
@@ -15281,7 +15283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" t="s">
         <v>1327</v>
       </c>
@@ -15296,7 +15298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" t="s">
         <v>1329</v>
       </c>
@@ -15311,7 +15313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" t="s">
         <v>1331</v>
       </c>
@@ -15326,7 +15328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" t="s">
         <v>1333</v>
       </c>
@@ -15341,7 +15343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" t="s">
         <v>1335</v>
       </c>
@@ -15356,7 +15358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" t="s">
         <v>1337</v>
       </c>
@@ -15371,7 +15373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" t="s">
         <v>1339</v>
       </c>
@@ -15386,7 +15388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" t="s">
         <v>1341</v>
       </c>
@@ -15404,7 +15406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" t="s">
         <v>1342</v>
       </c>
@@ -15422,7 +15424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" t="s">
         <v>1344</v>
       </c>
@@ -15440,7 +15442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" t="s">
         <v>1346</v>
       </c>
@@ -15455,7 +15457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" t="s">
         <v>1348</v>
       </c>
@@ -15470,7 +15472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" t="s">
         <v>1350</v>
       </c>
@@ -15485,7 +15487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" t="s">
         <v>1352</v>
       </c>
@@ -15500,7 +15502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" t="s">
         <v>1354</v>
       </c>
@@ -15518,7 +15520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" t="s">
         <v>1355</v>
       </c>
@@ -15533,7 +15535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" t="s">
         <v>1357</v>
       </c>
@@ -15548,7 +15550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" t="s">
         <v>1359</v>
       </c>
@@ -15563,7 +15565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" t="s">
         <v>1361</v>
       </c>
@@ -15578,7 +15580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" t="s">
         <v>1363</v>
       </c>
@@ -15593,7 +15595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" t="s">
         <v>1365</v>
       </c>
@@ -15608,7 +15610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" t="s">
         <v>1367</v>
       </c>
@@ -15623,7 +15625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" t="s">
         <v>1369</v>
       </c>
@@ -15638,7 +15640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" t="s">
         <v>1371</v>
       </c>
@@ -15653,7 +15655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" t="s">
         <v>1373</v>
       </c>
@@ -15668,7 +15670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" t="s">
         <v>1375</v>
       </c>
@@ -15683,7 +15685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" t="s">
         <v>1377</v>
       </c>
@@ -15698,7 +15700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" t="s">
         <v>1379</v>
       </c>
@@ -15713,7 +15715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" t="s">
         <v>1381</v>
       </c>
@@ -15728,7 +15730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" t="s">
         <v>1383</v>
       </c>
@@ -15743,7 +15745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" t="s">
         <v>1385</v>
       </c>
@@ -15761,7 +15763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" t="s">
         <v>1387</v>
       </c>
@@ -15776,7 +15778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" t="s">
         <v>1389</v>
       </c>
@@ -15791,7 +15793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" t="s">
         <v>1391</v>
       </c>
@@ -15809,7 +15811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" t="s">
         <v>1392</v>
       </c>
@@ -15824,7 +15826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" t="s">
         <v>1394</v>
       </c>
@@ -15842,7 +15844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" t="s">
         <v>1396</v>
       </c>
@@ -15857,7 +15859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" t="s">
         <v>1398</v>
       </c>
@@ -15872,7 +15874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" t="s">
         <v>1400</v>
       </c>
@@ -15887,7 +15889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" t="s">
         <v>1402</v>
       </c>
@@ -15902,7 +15904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" t="s">
         <v>1404</v>
       </c>
@@ -15917,7 +15919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" t="s">
         <v>1406</v>
       </c>
@@ -15932,7 +15934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" t="s">
         <v>1408</v>
       </c>
@@ -15950,7 +15952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" t="s">
         <v>1410</v>
       </c>
@@ -15965,7 +15967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" t="s">
         <v>1412</v>
       </c>
@@ -15980,7 +15982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" t="s">
         <v>1414</v>
       </c>
@@ -15995,7 +15997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" t="s">
         <v>1416</v>
       </c>
@@ -16010,7 +16012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" t="s">
         <v>1418</v>
       </c>
@@ -16025,7 +16027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" t="s">
         <v>1420</v>
       </c>
@@ -16040,7 +16042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" t="s">
         <v>1422</v>
       </c>
@@ -16055,7 +16057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" t="s">
         <v>1424</v>
       </c>
@@ -16073,7 +16075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" t="s">
         <v>1426</v>
       </c>
@@ -16088,7 +16090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" t="s">
         <v>1428</v>
       </c>
@@ -16103,7 +16105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" t="s">
         <v>1430</v>
       </c>
@@ -16118,7 +16120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" t="s">
         <v>1432</v>
       </c>
@@ -16133,7 +16135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" t="s">
         <v>1434</v>
       </c>
@@ -16148,7 +16150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" t="s">
         <v>1436</v>
       </c>
@@ -16163,7 +16165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" t="s">
         <v>1438</v>
       </c>
@@ -16178,7 +16180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" t="s">
         <v>1440</v>
       </c>
@@ -16196,7 +16198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" t="s">
         <v>1442</v>
       </c>
@@ -16211,7 +16213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" t="s">
         <v>1444</v>
       </c>
@@ -16226,7 +16228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" t="s">
         <v>1446</v>
       </c>
@@ -16241,7 +16243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" t="s">
         <v>1448</v>
       </c>
@@ -16256,7 +16258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" t="s">
         <v>1450</v>
       </c>
@@ -16271,7 +16273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" t="s">
         <v>1452</v>
       </c>
@@ -16289,7 +16291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" t="s">
         <v>1454</v>
       </c>
@@ -16304,7 +16306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" t="s">
         <v>1456</v>
       </c>
@@ -16319,7 +16321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" t="s">
         <v>1458</v>
       </c>
@@ -16334,7 +16336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" t="s">
         <v>1460</v>
       </c>
@@ -16349,7 +16351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" t="s">
         <v>1462</v>
       </c>
@@ -16364,7 +16366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" t="s">
         <v>1464</v>
       </c>
@@ -16379,7 +16381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" t="s">
         <v>1466</v>
       </c>
@@ -16394,7 +16396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" t="s">
         <v>1468</v>
       </c>
@@ -16409,7 +16411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" t="s">
         <v>1470</v>
       </c>
@@ -16424,7 +16426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" t="s">
         <v>1472</v>
       </c>
@@ -16439,7 +16441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" t="s">
         <v>1474</v>
       </c>
@@ -16457,7 +16459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" t="s">
         <v>1476</v>
       </c>
@@ -16472,7 +16474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" t="s">
         <v>1478</v>
       </c>
@@ -16490,7 +16492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" t="s">
         <v>1480</v>
       </c>
@@ -16505,7 +16507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" t="s">
         <v>1482</v>
       </c>
@@ -16523,7 +16525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" t="s">
         <v>1484</v>
       </c>
@@ -16538,7 +16540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" t="s">
         <v>1486</v>
       </c>
@@ -16553,7 +16555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" t="s">
         <v>1488</v>
       </c>
@@ -16571,7 +16573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" t="s">
         <v>1490</v>
       </c>
@@ -16586,7 +16588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" t="s">
         <v>1492</v>
       </c>
@@ -16604,7 +16606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" t="s">
         <v>1494</v>
       </c>
@@ -16619,7 +16621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" t="s">
         <v>1496</v>
       </c>
@@ -16634,7 +16636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" t="s">
         <v>1498</v>
       </c>
@@ -16649,7 +16651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" t="s">
         <v>1500</v>
       </c>
@@ -16664,7 +16666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" t="s">
         <v>1502</v>
       </c>
@@ -16682,7 +16684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" t="s">
         <v>1504</v>
       </c>
@@ -16700,7 +16702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" t="s">
         <v>1505</v>
       </c>
@@ -16718,7 +16720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" t="s">
         <v>1507</v>
       </c>
@@ -16733,7 +16735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" t="s">
         <v>1509</v>
       </c>
@@ -16751,7 +16753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" t="s">
         <v>1511</v>
       </c>
@@ -16766,7 +16768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" t="s">
         <v>1513</v>
       </c>
@@ -16781,7 +16783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" t="s">
         <v>1515</v>
       </c>
@@ -16796,7 +16798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A766" t="s">
         <v>1517</v>
       </c>
@@ -16814,7 +16816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A767" t="s">
         <v>1519</v>
       </c>
@@ -16829,7 +16831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A768" t="s">
         <v>1521</v>
       </c>
@@ -16847,7 +16849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A769" t="s">
         <v>1523</v>
       </c>
@@ -16862,7 +16864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A770" t="s">
         <v>1525</v>
       </c>
@@ -16877,7 +16879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A771" t="s">
         <v>1527</v>
       </c>
@@ -16892,7 +16894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A772" t="s">
         <v>1529</v>
       </c>
@@ -16907,7 +16909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A773" t="s">
         <v>1531</v>
       </c>
@@ -16925,7 +16927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A774" t="s">
         <v>1533</v>
       </c>
@@ -16940,7 +16942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A775" t="s">
         <v>1535</v>
       </c>
@@ -16955,7 +16957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A776" t="s">
         <v>1537</v>
       </c>
@@ -16970,7 +16972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A777" t="s">
         <v>1539</v>
       </c>
@@ -16986,16 +16988,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E777" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E777" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
